--- a/Underdetection_France/transmission_model/input/params.xlsx
+++ b/Underdetection_France/transmission_model/input/params.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laura Di Domenico\Dropbox\my_coronavirus\project_interventions\SEEIR python model\REPORTS\report_F_detection_rate\work_detection_probability\to_github\transmission_model\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laura Di Domenico\Dropbox\my_coronavirus\work_detection_probability\to_github\revision\transmission_model\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057195A0-9EDD-496C-A6ED-81A3D61B82AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FA133A-6718-4652-B108-435DA06976E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5322" yWindow="876" windowWidth="14736" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,82 +36,82 @@
     <t>lag</t>
   </si>
   <si>
-    <t>0.088</t>
-  </si>
-  <si>
-    <t>1.44</t>
-  </si>
-  <si>
-    <t>0.0935</t>
-  </si>
-  <si>
-    <t>1.19</t>
-  </si>
-  <si>
-    <t>1.41</t>
-  </si>
-  <si>
-    <t>0.0895</t>
-  </si>
-  <si>
-    <t>1.22</t>
-  </si>
-  <si>
     <t>region</t>
   </si>
   <si>
-    <t>0.0765</t>
-  </si>
-  <si>
-    <t>1.57</t>
-  </si>
-  <si>
     <t>1.37</t>
   </si>
   <si>
-    <t>1.48</t>
-  </si>
-  <si>
-    <t>0.0755</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>1.38</t>
-  </si>
-  <si>
-    <t>2.12</t>
-  </si>
-  <si>
-    <t>0.0585</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>1.17</t>
-  </si>
-  <si>
-    <t>0.086</t>
-  </si>
-  <si>
-    <t>1.35</t>
-  </si>
-  <si>
-    <t>0.083</t>
-  </si>
-  <si>
-    <t>0.073</t>
-  </si>
-  <si>
-    <t>1.77</t>
-  </si>
-  <si>
-    <t>0.0825</t>
-  </si>
-  <si>
-    <t>scale_LD</t>
+    <t>alpha_LD</t>
+  </si>
+  <si>
+    <t>0.08978</t>
+  </si>
+  <si>
+    <t>1.20</t>
+  </si>
+  <si>
+    <t>0.0775</t>
+  </si>
+  <si>
+    <t>1.58</t>
+  </si>
+  <si>
+    <t>1.47</t>
+  </si>
+  <si>
+    <t>1.39</t>
+  </si>
+  <si>
+    <t>1.52</t>
+  </si>
+  <si>
+    <t>1.45</t>
+  </si>
+  <si>
+    <t>1.53</t>
+  </si>
+  <si>
+    <t>1.54</t>
+  </si>
+  <si>
+    <t>1.26</t>
+  </si>
+  <si>
+    <t>1.51</t>
+  </si>
+  <si>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>0.0799</t>
+  </si>
+  <si>
+    <t>0.07746</t>
+  </si>
+  <si>
+    <t>0.07678</t>
+  </si>
+  <si>
+    <t>0.07726</t>
+  </si>
+  <si>
+    <t>0.07824</t>
+  </si>
+  <si>
+    <t>0.07565</t>
+  </si>
+  <si>
+    <t>0.07511</t>
+  </si>
+  <si>
+    <t>0.08322</t>
+  </si>
+  <si>
+    <t>0.08093</t>
+  </si>
+  <si>
+    <t>0.09029</t>
   </si>
 </sst>
 </file>
@@ -153,8 +153,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -472,29 +473,30 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="14.84765625" customWidth="1"/>
+    <col min="5" max="5" width="10.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>28</v>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.6">
@@ -502,16 +504,16 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D2">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.6">
@@ -519,16 +521,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.6">
@@ -536,16 +538,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.6">
@@ -553,16 +555,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.6">
@@ -570,15 +572,15 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -587,16 +589,16 @@
         <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D7">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
+        <v>4</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.6">
@@ -604,16 +606,16 @@
         <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.6">
@@ -621,16 +623,16 @@
         <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
+        <v>6</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.6">
@@ -638,16 +640,16 @@
         <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.6">
@@ -655,16 +657,16 @@
         <v>76</v>
       </c>
       <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11">
         <v>22</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
       <c r="D11">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.6">
@@ -672,16 +674,16 @@
         <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.6">
@@ -689,20 +691,21 @@
         <v>93</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D13">
-        <v>29</v>
-      </c>
-      <c r="E13" t="s">
-        <v>26</v>
+        <v>6</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>